--- a/Student Information.xlsx
+++ b/Student Information.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Facebook Name</t>
   </si>
@@ -97,13 +97,19 @@
   </si>
   <si>
     <t>adezeos@yahoo.com</t>
+  </si>
+  <si>
+    <t>Charles Lee</t>
+  </si>
+  <si>
+    <t>charles26lee@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -280,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,21 +460,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +496,7 @@
         <v>9334484630</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,7 +507,7 @@
         <v>9228335098</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -514,7 +518,7 @@
         <v>9209236353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -525,7 +529,7 @@
         <v>9173131213</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -536,7 +540,7 @@
         <v>9178132182</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -547,7 +551,7 @@
         <v>9167420256</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -558,7 +562,7 @@
         <v>9228162714</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -569,7 +573,7 @@
         <v>9178211510</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -580,7 +584,7 @@
         <v>9328604321</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -591,7 +595,7 @@
         <v>9175451776</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -602,7 +606,7 @@
         <v>9973944678</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -611,6 +615,17 @@
       </c>
       <c r="C13">
         <v>9165937609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>9227953510</v>
       </c>
     </row>
   </sheetData>
@@ -627,31 +642,32 @@
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
